--- a/libraries/AP_HAL_ChibiOS/hwdef/DAELAK743/DAELAK743_Pinout.xlsx
+++ b/libraries/AP_HAL_ChibiOS/hwdef/DAELAK743/DAELAK743_Pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rrace\ardupilot\libraries\AP_HAL_ChibiOS\hwdef\DEALAK743\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rrace\ardupilot\libraries\AP_HAL_ChibiOS\hwdef\DAELAK743\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE015FB6-D2CA-421E-8312-97D913F774B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C939AD4-DDC5-4FD9-BAC1-64ACCBFDEB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="290">
   <si>
     <t>IMU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,6 +965,87 @@
   </si>
   <si>
     <t>USB</t>
+  </si>
+  <si>
+    <t>PD13 QSPI_BK1_IO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE2 QSPI_BK1_IO2 </t>
+  </si>
+  <si>
+    <t>PD12 QSPI_BK1_IO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD11 QSPI_BK1_IO0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB2 QSPI_CLK    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB6 QSPI_BK1_NCS </t>
+  </si>
+  <si>
+    <t>QSPI Default Flash:W25Q64 64MBit 8MB (U7)</t>
+  </si>
+  <si>
+    <t>PB4 SPI_Flash_MISO</t>
+  </si>
+  <si>
+    <t>PD7 SPI_Flash_MOSI</t>
+  </si>
+  <si>
+    <t>PB3 SPI_Flash_CLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD6 SPI_Flash_CS </t>
+  </si>
+  <si>
+    <t>SPI Default Flash:W25Q64 64MBit 8MB (U8)</t>
+  </si>
+  <si>
+    <t>PC6 DCMI_D0</t>
+  </si>
+  <si>
+    <t>PC7 DCMI_D1</t>
+  </si>
+  <si>
+    <t>PE0 DCMI_D2</t>
+  </si>
+  <si>
+    <t>PE1 DCMI_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE4 DCMI_D4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD3 DCMI_D5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE5 DCMI_D6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE6 DCMI_D7 </t>
+  </si>
+  <si>
+    <t>PB7 DCMI_VSYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA4 DCMI_HSYNC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA6 DCMI_PIXCLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA8 RCC_MCO_1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8 I2C1_SCL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB9 I2C1_SDA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA7 DVP_PWDN </t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,6 +1149,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,6 +1295,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2826,13 +2945,14 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="23" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2846,27 +2966,48 @@
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" s="40" t="s">
+        <v>278</v>
+      </c>
       <c r="B3" t="s">
         <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>182</v>
       </c>
+      <c r="D3" s="39" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" s="40" t="s">
+        <v>288</v>
+      </c>
       <c r="B4" t="s">
         <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>186</v>
       </c>
+      <c r="D4" s="39" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" s="40" t="s">
+        <v>283</v>
+      </c>
       <c r="B5" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>187</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2876,16 +3017,31 @@
       <c r="C6" t="s">
         <v>188</v>
       </c>
+      <c r="D6" s="36" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" s="37" t="s">
+        <v>272</v>
+      </c>
       <c r="B7" t="s">
         <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>189</v>
       </c>
+      <c r="D7" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
+      <c r="A8" s="37" t="s">
+        <v>273</v>
+      </c>
       <c r="B8" t="s">
         <v>166</v>
       </c>
@@ -2903,6 +3059,9 @@
       <c r="C9" t="s">
         <v>191</v>
       </c>
+      <c r="D9" s="39" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
@@ -2975,6 +3134,9 @@
       <c r="C15" t="s">
         <v>197</v>
       </c>
+      <c r="D15" s="39" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="31" t="s">
@@ -2990,15 +3152,21 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="B17" t="s">
         <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>176</v>
       </c>
@@ -3006,15 +3174,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
+      <c r="A19" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="B19" t="s">
         <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33" t="s">
+        <v>266</v>
+      </c>
       <c r="B20" t="s">
         <v>178</v>
       </c>
@@ -3022,7 +3199,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>179</v>
       </c>
@@ -3030,7 +3207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>180</v>
       </c>
@@ -3038,7 +3215,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>181</v>
       </c>
@@ -3046,12 +3223,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>211</v>
       </c>
@@ -3059,7 +3236,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
+      <c r="A28" s="33" t="s">
+        <v>264</v>
+      </c>
       <c r="B28" t="s">
         <v>206</v>
       </c>
@@ -3067,15 +3247,24 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
+      <c r="A29" s="40" t="s">
+        <v>279</v>
+      </c>
       <c r="B29" t="s">
         <v>207</v>
       </c>
       <c r="C29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="D29" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="40" t="s">
+        <v>282</v>
+      </c>
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -3083,7 +3272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>209</v>
       </c>
@@ -3091,7 +3280,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:4">
       <c r="B32" t="s">
         <v>184</v>
       </c>
@@ -3132,6 +3321,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
+      <c r="A37" s="40" t="s">
+        <v>284</v>
+      </c>
       <c r="B37" t="s">
         <v>213</v>
       </c>
@@ -3140,11 +3332,17 @@
       </c>
     </row>
     <row r="38" spans="1:6">
+      <c r="A38" s="40" t="s">
+        <v>285</v>
+      </c>
       <c r="B38" t="s">
         <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>234</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3164,6 +3362,9 @@
       </c>
     </row>
     <row r="41" spans="1:6">
+      <c r="A41" s="33" t="s">
+        <v>267</v>
+      </c>
       <c r="B41" t="s">
         <v>216</v>
       </c>
